--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1358085.989623721</v>
+        <v>1360409.661437589</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -659,28 +661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13.00576294050485</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>46.387244225706</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -856,28 +858,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.44046883036172</v>
       </c>
       <c r="U4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>215.5717580809477</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>240.0192609915369</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>192.7339396976112</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0426595591497</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>93.50359121090975</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.92822853230132</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1266,19 +1268,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>36.01154716837699</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1333,19 +1335,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,67 +1372,67 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>79.06756620474144</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>84.05721994201966</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1607,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>81.0053776549329</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1923,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>224.7290201186385</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2181,7 +2183,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>60.22092770013854</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>23.28159757912401</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2333,13 +2335,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>157.1746589509483</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>41.6227610156345</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>155.2574994062487</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.1709854894324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,16 +2730,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>33.80371536444981</v>
-      </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2871,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2922,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>117.530383720924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2956,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3032,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="V32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>51.59189336976466</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>173.0346848729335</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,28 +3310,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,19 +3350,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>78.0037009296137</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="37">
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>53.04584901480074</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,7 +3590,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>142.8009741436498</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,58 +3669,58 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,70 +3745,70 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="S41" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>45.7693770721695</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,19 +3869,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3974,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>47.26241467853677</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>125.2132019625774</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4150,52 +4152,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>51.89093722176958</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>51.89093722176958</v>
       </c>
       <c r="E2" t="n">
-        <v>112.3871215328157</v>
+        <v>51.89093722176958</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>44.94543647256612</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>29.48812585121758</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787934</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787934</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>57.25840604064639</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064639</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>110.2358097604968</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199492</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199492</v>
       </c>
       <c r="P2" t="n">
-        <v>214.050116039799</v>
+        <v>214.0501160397996</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>214.0501160397996</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337896</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176958</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176958</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176958</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581706</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581706</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581706</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581706</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581706</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>57.25840604064639</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064639</v>
       </c>
       <c r="M3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000988</v>
       </c>
       <c r="N3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199492</v>
       </c>
       <c r="O3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199492</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199492</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.050116039799</v>
+        <v>214.0501160397996</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337896</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="V3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="W3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277796</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176958</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176958</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.70717359904702</v>
+        <v>58.33406192680599</v>
       </c>
       <c r="C4" t="n">
-        <v>30.70717359904702</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="D4" t="n">
-        <v>30.70717359904702</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="E4" t="n">
-        <v>30.70717359904702</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="F4" t="n">
-        <v>30.70717359904702</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="G4" t="n">
-        <v>30.70717359904702</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795992</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>31.59512732850897</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>70.78316552073115</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>114.4740161761675</v>
       </c>
       <c r="O4" t="n">
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>84.76023320505688</v>
+        <v>112.387121532816</v>
       </c>
       <c r="U4" t="n">
-        <v>30.70717359904702</v>
+        <v>112.387121532816</v>
       </c>
       <c r="V4" t="n">
-        <v>30.70717359904702</v>
+        <v>112.387121532816</v>
       </c>
       <c r="W4" t="n">
-        <v>30.70717359904702</v>
+        <v>58.33406192680599</v>
       </c>
       <c r="X4" t="n">
-        <v>30.70717359904702</v>
+        <v>58.33406192680599</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.70717359904702</v>
+        <v>58.33406192680599</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>285.1327311248648</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>285.1327311248648</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>41.68395448076474</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>41.68395448076474</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D6" t="n">
         <v>668.2068788942177</v>
@@ -4647,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
         <v>656.0584510084244</v>
@@ -4683,13 +4685,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>125.7992042875079</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>452.9407326573341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>452.9407326573341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>452.9407326573341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>452.9407326573341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>306.4061746842191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>167.6753492668346</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>54.30621367441391</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4916,19 @@
         <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V9" t="n">
-        <v>660.701031422288</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="W9" t="n">
-        <v>660.701031422288</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="X9" t="n">
-        <v>660.701031422288</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y9" t="n">
-        <v>452.9407326573341</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="10">
@@ -4981,16 +4983,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5077,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>104.1874258799295</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C12" t="n">
-        <v>104.1874258799295</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="D12" t="n">
-        <v>104.1874258799295</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="E12" t="n">
-        <v>104.1874258799295</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>104.1874258799295</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>104.1874258799295</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>104.1874258799295</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5121,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5145,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>555.4877027295624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>312.0389260854624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>104.1874258799295</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>104.1874258799295</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="13">
@@ -5176,25 +5178,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5255,25 +5257,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5331,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C15" t="n">
         <v>817.1412885554689</v>
@@ -5358,16 +5360,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C17" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D17" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E17" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5598,7 +5600,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
         <v>542.809531908403</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5791,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C21" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D21" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E21" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F21" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>903.2279356115064</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>903.2279356115064</v>
       </c>
       <c r="T21" t="n">
-        <v>665.9535162827524</v>
+        <v>903.2279356115064</v>
       </c>
       <c r="U21" t="n">
-        <v>665.9535162827524</v>
+        <v>675.0043173478955</v>
       </c>
       <c r="V21" t="n">
-        <v>430.8014080510097</v>
+        <v>675.0043173478955</v>
       </c>
       <c r="W21" t="n">
-        <v>430.8014080510097</v>
+        <v>431.5555407037955</v>
       </c>
       <c r="X21" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y21" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="22">
@@ -5932,16 +5934,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>178.0434248788474</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X24" t="n">
-        <v>554.0190606638694</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="Y24" t="n">
-        <v>346.2587618989155</v>
+        <v>152.3780978509273</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y26" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="X26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6338,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>518.4217842253022</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y27" t="n">
-        <v>336.430889791532</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
         <v>829.5248650203655</v>
@@ -6415,19 +6417,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>509.4769954460863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C29" t="n">
-        <v>509.4769954460863</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D29" t="n">
-        <v>509.4769954460863</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E29" t="n">
-        <v>266.0282188019862</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F29" t="n">
-        <v>266.0282188019862</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G29" t="n">
-        <v>266.0282188019862</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W29" t="n">
-        <v>509.4769954460863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X29" t="n">
-        <v>509.4769954460863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y29" t="n">
-        <v>509.4769954460863</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,16 +6545,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X30" t="n">
-        <v>284.5332603973924</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.8157010833278</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="31">
@@ -6604,10 +6606,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>178.5185981156682</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C33" t="n">
-        <v>178.5185981156682</v>
+        <v>379.5660313827424</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>230.6316217214911</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>71.39416671603561</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>413.6707063474109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>178.5185981156682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>178.5185981156682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>178.5185981156682</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y33" t="n">
-        <v>178.5185981156682</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="34">
@@ -6874,10 +6876,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>385.8949250843803</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C36" t="n">
-        <v>211.4418958032533</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,13 +7019,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>554.1102621044483</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>486.9119902784999</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C39" t="n">
-        <v>312.4589609973729</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D39" t="n">
-        <v>163.5245513361216</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7515,25 +7517,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E44" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F44" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G44" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>619.4388494194218</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C45" t="n">
-        <v>444.9858201382948</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D45" t="n">
-        <v>296.0514104770435</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="E45" t="n">
-        <v>296.0514104770435</v>
+        <v>145.759124890594</v>
       </c>
       <c r="F45" t="n">
-        <v>248.3115976704407</v>
+        <v>145.759124890594</v>
       </c>
       <c r="G45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7728,7 +7730,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
         <v>248.2447175439888</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194218</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>619.4388494194218</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y45" t="n">
-        <v>619.4388494194218</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>273.6023800549304</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372227</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223004</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652194</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>191.3539679843089</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>193.4844405477278</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>184.8542410932832</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959714</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,10 +8780,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,10 +9017,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10202,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>243.2069195535496</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -23258,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>363.4633956979714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23315,10 +23317,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23343,19 +23345,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>78.5775142506595</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.339412909395421</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>56.32934533914265</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>127.8627523801188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23437,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23495,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456287</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>21.08647536425173</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>258.4694244608343</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23811,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>26.96596304228106</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,28 +23971,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318533</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
@@ -24069,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.93690645250459</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>176.8831311156976</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24221,13 +24223,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>15.53384003736741</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>70.61268322086197</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5905486845387</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24443,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>17.45099958206706</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>25.51171028787192</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,16 +24618,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>305.6710867513173</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,10 +24727,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24759,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>43.73201020175699</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24810,22 +24812,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.15231205638032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24844,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24920,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>241.6084167358175</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>93.47731902361923</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25044,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>52.90669720804129</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>46.82786452690794</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>147.6414643519508</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>69.44136463502505</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25284,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="37">
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25439,25 +25441,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>113.4873346350666</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>14.84410631175118</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,7 +25529,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25673,19 +25675,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>66.46606716432697</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,19 +25757,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25944,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>97.80679771484711</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>12.13031520063322</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399142.8837456287</v>
+        <v>399142.8837456288</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>399142.8837456289</v>
+        <v>399142.8837456288</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>399142.8837456288</v>
+        <v>399142.8837456289</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>399142.8837456288</v>
+        <v>399142.8837456289</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399142.8837456287</v>
+        <v>399142.8837456288</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049983</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049982</v>
-      </c>
       <c r="E2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="F2" t="n">
         <v>232624.9415438654</v>
@@ -26329,7 +26331,7 @@
         <v>232624.9415438654</v>
       </c>
       <c r="H2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="I2" t="n">
         <v>232624.9415438653</v>
@@ -26338,10 +26340,10 @@
         <v>232624.9415438653</v>
       </c>
       <c r="K2" t="n">
+        <v>232624.9415438653</v>
+      </c>
+      <c r="L2" t="n">
         <v>232624.9415438654</v>
-      </c>
-      <c r="L2" t="n">
-        <v>232624.9415438653</v>
       </c>
       <c r="M2" t="n">
         <v>232624.9415438653</v>
@@ -26353,7 +26355,7 @@
         <v>232624.9415438653</v>
       </c>
       <c r="P2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438655</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940144</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>60576.32218666807</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027929</v>
+        <v>14001.23214027933</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>48256.95293363257</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>366277.5278986197</v>
+        <v>366277.5278986196</v>
       </c>
       <c r="C4" t="n">
-        <v>329330.5315619939</v>
+        <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
         <v>329330.531561994</v>
@@ -26427,37 +26429,37 @@
         <v>50385.00392753457</v>
       </c>
       <c r="F4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="G4" t="n">
         <v>50385.00392753457</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>50385.00392753458</v>
       </c>
-      <c r="H4" t="n">
-        <v>50385.00392753457</v>
-      </c>
       <c r="I4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="K4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="L4" t="n">
         <v>50385.00392753457</v>
-      </c>
-      <c r="L4" t="n">
-        <v>50385.00392753456</v>
       </c>
       <c r="M4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
+        <v>50385.00392753456</v>
+      </c>
+      <c r="O4" t="n">
         <v>50385.00392753457</v>
       </c>
-      <c r="O4" t="n">
-        <v>50385.00392753456</v>
-      </c>
       <c r="P4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380494</v>
+        <v>36881.16176380495</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153637.2699831723</v>
+        <v>153637.2699831724</v>
       </c>
       <c r="C6" t="n">
-        <v>136541.1163925746</v>
+        <v>136541.1163925744</v>
       </c>
       <c r="D6" t="n">
-        <v>197117.4385792425</v>
+        <v>197117.4385792426</v>
       </c>
       <c r="E6" t="n">
         <v>167586.2688525691</v>
@@ -26537,7 +26539,7 @@
         <v>167586.2688525692</v>
       </c>
       <c r="H6" t="n">
-        <v>167586.2688525691</v>
+        <v>167586.2688525692</v>
       </c>
       <c r="I6" t="n">
         <v>167586.2688525691</v>
@@ -26549,19 +26551,19 @@
         <v>119329.3159189365</v>
       </c>
       <c r="L6" t="n">
-        <v>167586.2688525691</v>
+        <v>167586.2688525692</v>
       </c>
       <c r="M6" t="n">
         <v>167586.2688525691</v>
       </c>
       <c r="N6" t="n">
-        <v>167586.2688525691</v>
+        <v>167586.2688525692</v>
       </c>
       <c r="O6" t="n">
         <v>167586.2688525691</v>
       </c>
       <c r="P6" t="n">
-        <v>167586.2688525691</v>
+        <v>167586.2688525692</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677093</v>
+        <v>187.5017598677092</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994991</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>187.5017598677092</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>187.5017598677092</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,28 +27381,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>311.7603627610576</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>334.7965345202981</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>326.4690391752623</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119978</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762954</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27464,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.2578362296949</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269323</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938879</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>198.1824541509698</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>152.2604561935276</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886779</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>136.065262941971</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27576,28 +27578,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>204.5051205979198</v>
       </c>
       <c r="U4" t="n">
-        <v>232.8065003465411</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266411</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>191.3042876607638</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>11.32639191629957</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27755,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>58.96104346330841</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27795,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.60374760888197</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27831,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>321.7991463042253</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,22 +27897,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>55.46840431911376</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,19 +27988,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>196.7890399810483</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51.35040662570951</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>51.35040662570938</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570936</v>
+        <v>51.35040662570951</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.5125290099499</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35255,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,10 +35500,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,10 +35737,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,10 +35968,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37154,10 +37156,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38026,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>104.6525397736754</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
